--- a/medicine/Hématologie/Lymphocyte_B_à_mémoire/Lymphocyte_B_à_mémoire.xlsx
+++ b/medicine/Hématologie/Lymphocyte_B_à_mémoire/Lymphocyte_B_à_mémoire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Lymphocyte_B_%C3%A0_m%C3%A9moire</t>
+          <t>Lymphocyte_B_à_mémoire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lymphocytes B à mémoires dérivent des lymphocytes B. Après reconnaissance des antigènes par les lymphocytes B (lors de la réponse immunitaire primaire), certains se différencient en lymphocytes B mémoires et d'autre en plasmocytes.
 Les lymphocytes B à mémoires ont pour rôle de mémoriser les propriétés de l'antigène les ayant activés, afin de créer une réponse immunitaire plus rapide, plus longue, plus intense et plus spécifique dans le cas d'une seconde infection par ce même antigène (réponse immunitaire secondaire). De plus, les lymphocytes B à mémoires ont une durée de vie beaucoup plus longue que les plasmocytes.
-C'est sur le principe de cette mémoire immunitaire que les vaccins sont réalisés. Mais le rôle de ces cellules n'est toutefois pas clair, car leur nombre ne semble pas varier au cours du temps, contrairement au taux d'anticorps spécifiques[1].
-Cette caractéristique de la réponse immunitaire spécifique a été reconnue il y a 2 400 ans par l'historien grec Thucydide d'Athènes qui remarqua que « nul ne souffrait de la peste à deux reprises »[2].
+C'est sur le principe de cette mémoire immunitaire que les vaccins sont réalisés. Mais le rôle de ces cellules n'est toutefois pas clair, car leur nombre ne semble pas varier au cours du temps, contrairement au taux d'anticorps spécifiques.
+Cette caractéristique de la réponse immunitaire spécifique a été reconnue il y a 2 400 ans par l'historien grec Thucydide d'Athènes qui remarqua que « nul ne souffrait de la peste à deux reprises ».
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Lymphocyte_B_%C3%A0_m%C3%A9moire</t>
+          <t>Lymphocyte_B_à_mémoire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Différenciation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans la moelle osseuse, les précurseurs des lymphocytes se différencient en lymphocytes B immuno-compétents qui expriment des IgD et IgM. Ils peuvent alors reconnaître leur antigène spécifique par leur immunoglobuline (Ig) de membrane, également appelé récepteur des cellules B, et participer à la réponse immunitaire dite à médiation humorale. Si l'antigène est T-dépendant, alors les lymphocytes B activés coopèrent avec les lymphocytes T auxiliaires dans les organes lymphoïdes secondaires. Il se forme alors un centre germinatif au sein duquel ils subissent la maturation d'affinité et la commutation de classe leur permettant de produire des immunoglobulines A, E ou G. 
 Ils se différencient ensuite en plasmocytes à courte durée de vie, plasmocytes à longue 
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lymphocyte_B_%C3%A0_m%C3%A9moire</t>
+          <t>Lymphocyte_B_à_mémoire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Caractéristiques des lymphocytes B mémoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les lymphocytes B mémoires ont déjà subi le processus de maturation d'affinité et la commutation de classe, ce qui se traduit par la présence de mutations somatiques sur les gènes codant les immunoglobulines.
 Parmi ces lymphocytes B mémoires, on trouve de nombreuses sous-populations caractérisées par le type d'Ig synthétisée (IgA, IgE, IgG ou IgM) et le niveau d'expression de molécules de surface (CD27 notamment, mais aussi FCRL4). Cependant, le rôle spécifique de chaque sous-population dans la mémoire immunitaire est encore débattu.
@@ -563,7 +579,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Lymphocyte_B_%C3%A0_m%C3%A9moire</t>
+          <t>Lymphocyte_B_à_mémoire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -581,7 +597,9 @@
           <t>Réactivation des lymphocytes B mémoires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Les lymphocytes B mémoires sont capables de proliférer et se différencier très rapidement en plasmocytes producteurs d’anticorps à la suite d'une deuxième exposition à leur antigène spécifique. Cette capacité à réagir plus rapidement avec un très court temps de latence est liée à différents mécanismes :
 Il y a davantage de lymphocytes B mémoires capable de répondre à la stimulation antigénique car ils ont déjà subi la prolifération lors de la réponse primaire.
@@ -598,7 +616,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lymphocyte_B_%C3%A0_m%C3%A9moire</t>
+          <t>Lymphocyte_B_à_mémoire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -616,7 +634,9 @@
           <t>Rôle des lymphocytes B mémoires pour la vaccination</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">La mémoire du système immunitaire est utilisée à des fins médicales : la vaccination qui 
 permet à l'organisme d'acquérir préventivement et durablement une mémoire immunitaire 
